--- a/doc_ex2/doc/Algo2 BM3 ts1 comparison.xlsx
+++ b/doc_ex2/doc/Algo2 BM3 ts1 comparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -168,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -334,6 +334,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -341,13 +352,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,10 +390,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -698,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1655062-209A-4B36-861B-E6DC8C57DFF6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -715,26 +727,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -751,7 +763,7 @@
       <c r="D2">
         <v>35.209699133932197</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="15">
         <v>702.14287995796701</v>
       </c>
       <c r="F2" t="s">
@@ -785,7 +797,7 @@
         <f>(L2+M2+N2)/3</f>
         <v>2.6115453044886601</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="5">
         <f>AVERAGE(O2:O18)</f>
         <v>3.2406382183049329</v>
       </c>
@@ -803,7 +815,7 @@
       <c r="D3">
         <v>35.209922913426297</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>707.91433214164499</v>
       </c>
       <c r="F3" t="s">
@@ -851,7 +863,7 @@
       <c r="D4">
         <v>35.209786248657899</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>708.63677223295895</v>
       </c>
       <c r="F4" t="s">
@@ -899,7 +911,7 @@
       <c r="D5">
         <v>35.209834157782097</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>711.46678921402997</v>
       </c>
       <c r="F5" t="s">
@@ -947,7 +959,7 @@
       <c r="D6">
         <v>35.2098344287175</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>708.81887883812101</v>
       </c>
       <c r="F6" t="s">
@@ -995,7 +1007,7 @@
       <c r="D7">
         <v>35.209670947037402</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>704.02740292492899</v>
       </c>
       <c r="F7" t="s">
@@ -1043,7 +1055,7 @@
       <c r="D8">
         <v>35.210097366410899</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>711.04240246276004</v>
       </c>
       <c r="F8" t="s">
@@ -1091,7 +1103,7 @@
       <c r="D9">
         <v>35.210095710894699</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>711.140526594775</v>
       </c>
       <c r="F9" t="s">
@@ -1139,7 +1151,7 @@
       <c r="D10">
         <v>35.209690991340899</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>704.10407530358702</v>
       </c>
       <c r="F10" t="s">
@@ -1187,7 +1199,7 @@
       <c r="D11">
         <v>35.209972524793599</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>711.91792346669195</v>
       </c>
       <c r="F11" t="s">
@@ -1235,7 +1247,7 @@
       <c r="D12">
         <v>35.209834157782097</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>711.46678921402997</v>
       </c>
       <c r="F12" t="s">
@@ -1283,7 +1295,7 @@
       <c r="D13">
         <v>35.2099735923696</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>710.50685601827604</v>
       </c>
       <c r="F13" t="s">
@@ -1331,7 +1343,7 @@
       <c r="D14">
         <v>35.210101386364499</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>710.67107941880602</v>
       </c>
       <c r="F14" t="s">
@@ -1379,7 +1391,7 @@
       <c r="D15">
         <v>35.210101386364499</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>710.67107941880602</v>
       </c>
       <c r="F15" t="s">
@@ -1427,7 +1439,7 @@
       <c r="D16">
         <v>35.209946390164198</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>710.47704989135002</v>
       </c>
       <c r="F16" t="s">
@@ -1475,7 +1487,7 @@
       <c r="D17">
         <v>35.210283621423898</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>710.90612609066795</v>
       </c>
       <c r="F17" t="s">
@@ -1523,7 +1535,7 @@
       <c r="D18">
         <v>35.209860525347999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>707.51923909451898</v>
       </c>
       <c r="F18" t="s">
